--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Row</t>
   </si>
@@ -166,6 +166,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -241,7 +307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -252,52 +318,52 @@
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29211543793965539</v>
+        <v>0.29211532114686489</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -329,317 +395,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29211858373993971</v>
+        <v>0.2921184741881182</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2596258632538441e-06</v>
+        <v>4.2679146923660747e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.5885150514701117e-08</v>
+        <v>-1.6176285126587893e-08</v>
       </c>
       <c r="F3" s="0">
-        <v>-8.8081710746420919e-09</v>
+        <v>-1.0308814227175595e-08</v>
       </c>
       <c r="G3" s="0">
-        <v>-4.3599204104861331e-07</v>
+        <v>-4.3562175436797561e-07</v>
       </c>
       <c r="H3" s="0">
-        <v>2.4505798699053565e-09</v>
+        <v>2.3910206434416589e-09</v>
       </c>
       <c r="I3" s="0">
-        <v>-6.5534027085394703e-07</v>
+        <v>-6.5490685966795734e-07</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.5052532270919414e-10</v>
+        <v>-2.5074631260224578e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29211191761039851</v>
+        <v>0.2921094384505355</v>
       </c>
       <c r="C4" s="0">
-        <v>-2.6547283990085783e-06</v>
+        <v>-5.0281205284465508e-06</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-4.8295596710550964e-10</v>
+        <v>-4.8310907877037414e-10</v>
       </c>
       <c r="F4" s="0">
-        <v>-6.5382706637910534e-08</v>
+        <v>-6.4993861120119415e-08</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.3915854475042246e-07</v>
+        <v>-1.3872892120392297e-07</v>
       </c>
       <c r="I4" s="0">
-        <v>-3.748638035591049e-06</v>
+        <v>-3.7456891192202184e-06</v>
       </c>
       <c r="J4" s="0">
-        <v>8.1841297880220213e-11</v>
+        <v>8.2706925575789406e-11</v>
       </c>
       <c r="K4" s="0">
-        <v>-5.782074052884667e-08</v>
+        <v>-5.7804750541734506e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29211152987098271</v>
+        <v>0.2921113140763486</v>
       </c>
       <c r="C5" s="0">
-        <v>8.4513604313682698e-06</v>
+        <v>1.0515198261432325e-05</v>
       </c>
       <c r="D5" s="0">
-        <v>-2.2040287792065658e-06</v>
+        <v>-2.0179261645599026e-06</v>
       </c>
       <c r="E5" s="0">
-        <v>2.0097290968375069e-07</v>
+        <v>2.0185715797118452e-07</v>
       </c>
       <c r="F5" s="0">
-        <v>5.395851954404896e-07</v>
+        <v>5.4413333351054986e-07</v>
       </c>
       <c r="G5" s="0">
-        <v>-5.9958831749896816e-06</v>
+        <v>-5.988784326257937e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>1.8172094665026103e-08</v>
+        <v>1.8352990861668951e-08</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.4003355112758542e-06</v>
+        <v>-1.3996185430475128e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.4174185431213857e-09</v>
+        <v>2.4131032172469702e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29305244935669406</v>
+        <v>0.2930511942850898</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00095668132912777204</v>
+        <v>0.00095564052858293903</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.0341201086321804e-09</v>
+        <v>-1.0340204956677926e-09</v>
       </c>
       <c r="F6" s="0">
-        <v>-2.825688115806648e-07</v>
+        <v>-2.8241468275697406e-07</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.7245984566739099e-07</v>
+        <v>-1.7229177911971412e-07</v>
       </c>
       <c r="I6" s="0">
-        <v>-1.5304525117959059e-05</v>
+        <v>-1.5303297334959014e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.2555211315046222e-09</v>
+        <v>-1.2820244310596252e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29291604979347191</v>
+        <v>0.29291492063828217</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00013993481682687435</v>
+        <v>-0.00013982473934605092</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.1481099683222889e-07</v>
+        <v>-3.1294581682628728e-07</v>
       </c>
       <c r="F7" s="0">
-        <v>-2.5178402236936905e-06</v>
+        <v>-2.5082466555600653e-06</v>
       </c>
       <c r="G7" s="0">
-        <v>1.0931142891752461e-06</v>
+        <v>1.0970934419584547e-06</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>5.3015328690212712e-06</v>
+        <v>5.3019365310709039e-06</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-2.6742332959184267e-08</v>
+        <v>-2.6744962244862336e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28951159423415201</v>
+        <v>0.28954517615656172</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0035070584005351111</v>
+        <v>-0.0034723547961208793</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1.0015579614394508e-08</v>
+        <v>1.0015820227841542e-08</v>
       </c>
       <c r="F8" s="0">
-        <v>-3.6968014075494038e-06</v>
+        <v>-3.6959096880423398e-06</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.3541889383811643e-08</v>
+        <v>-1.3535442935958559e-08</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00010621904474076928</v>
+        <v>0.00010622571185360279</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.4124191779277879e-08</v>
+        <v>8.4031857583433123e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0">
-        <v>0.28906516042179764</v>
+        <v>0.2890959846658272</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.00031120188161736824</v>
+        <v>-0.0003138995396380386</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.3461512771289405e-05</v>
+        <v>-1.3452533805492719e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>-8.3892382675532581e-05</v>
+        <v>-8.3846199293839877e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.3327417840450609e-05</v>
+        <v>-3.3433887931265762e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.1300153073729466e-06</v>
+        <v>-2.1280702243356601e-06</v>
       </c>
       <c r="I9" s="0">
-        <v>-2.5657939514359982e-06</v>
+        <v>-2.5765183510917794e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.4519180907557327e-07</v>
+        <v>1.4525850955404707e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30897396327507887</v>
+        <v>0.30944104872327177</v>
       </c>
       <c r="C10" s="0">
-        <v>0.019898211842746587</v>
+        <v>0.02033451401682327</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-5.1998510983793567e-08</v>
+        <v>-5.1997546673607518e-08</v>
       </c>
       <c r="F10" s="0">
-        <v>1.2175209174069858e-05</v>
+        <v>1.2153166722645572e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.8949633080657171e-08</v>
+        <v>-2.8949089823152218e-08</v>
       </c>
       <c r="I10" s="0">
-        <v>-1.4718443786028493e-06</v>
+        <v>-1.4902503063138925e-06</v>
       </c>
       <c r="J10" s="0">
-        <v>-2.0157678316341978e-08</v>
+        <v>-2.0227040323559557e-08</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.1248438458455468e-08</v>
+        <v>-1.1702118218881452e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0">
-        <v>0.31498854480170746</v>
+        <v>0.3154156999569166</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0062394776097412698</v>
+        <v>0.0062040654561134837</v>
       </c>
       <c r="E11" s="0">
-        <v>3.6375381185655811e-05</v>
+        <v>3.6125774468062595e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00025790673962533669</v>
+        <v>0.00025662288549639845</v>
       </c>
       <c r="G11" s="0">
-        <v>9.8814875849139166e-05</v>
+        <v>9.7477404136496677e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>5.6452143910086617e-07</v>
+        <v>5.1045117716470879e-07</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00061798430239236237</v>
+        <v>-0.00061957831509487432</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-5.7329881952838946e-07</v>
+        <v>-5.7242265188994779e-07</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.28876898556486458</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.026586885589334752</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>2.1748598548857979e-07</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.7963106140426572e-08</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>6.4555437913459026e-09</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-6.0202234670831396e-05</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>1.3152731814791707e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -232,6 +232,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -307,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.77734375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
@@ -325,45 +466,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29211532114686489</v>
+        <v>0.29211519312986489</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -395,352 +536,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2921184741881182</v>
+        <v>0.29211835850604084</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>4.2679146923660747e-06</v>
+        <v>4.2787474269457784e-06</v>
       </c>
       <c r="E3" s="0">
-        <v>-1.6176285126587893e-08</v>
+        <v>-1.607998037159474e-08</v>
       </c>
       <c r="F3" s="0">
-        <v>-1.0308814227175595e-08</v>
+        <v>-9.8124147431008847e-09</v>
       </c>
       <c r="G3" s="0">
-        <v>-4.3562175436797561e-07</v>
+        <v>-4.3521588179831208e-07</v>
       </c>
       <c r="H3" s="0">
-        <v>2.3910206434416589e-09</v>
+        <v>2.4107223088499574e-09</v>
       </c>
       <c r="I3" s="0">
-        <v>-6.5490685966795734e-07</v>
+        <v>-6.5442268565369064e-07</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.5074631260224578e-10</v>
+        <v>-2.5101071221556026e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2921094384505355</v>
+        <v>0.29210878208080876</v>
       </c>
       <c r="C4" s="0">
-        <v>-5.0281205284465508e-06</v>
+        <v>-5.5727888063279683e-06</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-4.8310907877037414e-10</v>
+        <v>-4.8305858792911695e-10</v>
       </c>
       <c r="F4" s="0">
-        <v>-6.4993861120119415e-08</v>
+        <v>-6.4580214831430675e-08</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-1.3872892120392297e-07</v>
+        <v>-1.3827485850288243e-07</v>
       </c>
       <c r="I4" s="0">
-        <v>-3.7456891192202184e-06</v>
+        <v>-3.7425751885993573e-06</v>
       </c>
       <c r="J4" s="0">
-        <v>8.2706925575789406e-11</v>
+        <v>8.5380188568421093e-11</v>
       </c>
       <c r="K4" s="0">
-        <v>-5.7804750541734506e-08</v>
+        <v>-5.7808485443011648e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2921113140763486</v>
+        <v>0.29210946224705425</v>
       </c>
       <c r="C5" s="0">
-        <v>1.0515198261432325e-05</v>
+        <v>9.2599019355748702e-06</v>
       </c>
       <c r="D5" s="0">
-        <v>-2.0179261645599026e-06</v>
+        <v>-1.9658605243473204e-06</v>
       </c>
       <c r="E5" s="0">
-        <v>2.0185715797118452e-07</v>
+        <v>2.027555443531556e-07</v>
       </c>
       <c r="F5" s="0">
-        <v>5.4413333351054986e-07</v>
+        <v>5.4875419098184268e-07</v>
       </c>
       <c r="G5" s="0">
-        <v>-5.988784326257937e-06</v>
+        <v>-5.9869048712572505e-06</v>
       </c>
       <c r="H5" s="0">
-        <v>1.8352990861668951e-08</v>
+        <v>1.8536779376641291e-08</v>
       </c>
       <c r="I5" s="0">
-        <v>-1.3996185430475128e-06</v>
+        <v>-1.3994278606144095e-06</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>2.4131032172469702e-09</v>
+        <v>2.4110514140751604e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2930511942850898</v>
+        <v>0.29305489866589879</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00095564052858293903</v>
+        <v>0.00096118346154210207</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.0340204956677926e-09</v>
+        <v>-1.0339118706731929e-09</v>
       </c>
       <c r="F6" s="0">
-        <v>-2.8241468275697406e-07</v>
+        <v>-2.8110273342221391e-07</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.7229177911971412e-07</v>
+        <v>-1.7085092702882914e-07</v>
       </c>
       <c r="I6" s="0">
-        <v>-1.5303297334959014e-05</v>
+        <v>-1.5292761185456597e-05</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-1.2820244310596252e-09</v>
+        <v>-1.2939397886491122e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29291492063828217</v>
+        <v>0.29291847333201704</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00013982473934605092</v>
+        <v>-0.00014006025437260296</v>
       </c>
       <c r="E7" s="0">
-        <v>-3.1294581682628728e-07</v>
+        <v>-2.9720074337716475e-07</v>
       </c>
       <c r="F7" s="0">
-        <v>-2.5082466555600653e-06</v>
+        <v>-2.4272617455664347e-06</v>
       </c>
       <c r="G7" s="0">
-        <v>1.0970934419584547e-06</v>
+        <v>1.0853488553097988e-06</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>5.3019365310709039e-06</v>
+        <v>5.3007726725552099e-06</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-2.6744962244862336e-08</v>
+        <v>-2.6738548042359866e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28954517615656172</v>
+        <v>0.28938787261184273</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.0034723547961208793</v>
+        <v>-0.0036331877476116618</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>1.0015820227841542e-08</v>
+        <v>1.0017854224202634e-08</v>
       </c>
       <c r="F8" s="0">
-        <v>-3.6959096880423398e-06</v>
+        <v>-3.6986753154110424e-06</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.3535442935958559e-08</v>
+        <v>-1.3480948677067849e-08</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00010622571185360279</v>
+        <v>0.00010620473492305461</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>8.4031857583433123e-08</v>
+        <v>8.4430924141010166e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2890959846658272</v>
+        <v>0.28895175533456885</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0003138995396380386</v>
+        <v>-0.00030120084343687162</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.3452533805492719e-05</v>
+        <v>-1.3479757832225693e-05</v>
       </c>
       <c r="F9" s="0">
-        <v>-8.3846199293839877e-05</v>
+        <v>-8.3986226290967456e-05</v>
       </c>
       <c r="G9" s="0">
-        <v>-3.3433887931265762e-05</v>
+        <v>-3.2935163573337176e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.1280702243356601e-06</v>
+        <v>-2.133967240598801e-06</v>
       </c>
       <c r="I9" s="0">
-        <v>-2.5765183510917794e-06</v>
+        <v>-2.526264163158598e-06</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1.4525850955404707e-07</v>
+        <v>1.449452632917847e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B10" s="0">
-        <v>0.30944104872327177</v>
+        <v>0.30910086590637942</v>
       </c>
       <c r="C10" s="0">
-        <v>0.02033451401682327</v>
+        <v>0.02013837053483027</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-5.1997546673607518e-08</v>
+        <v>-5.2000480556677607e-08</v>
       </c>
       <c r="F10" s="0">
-        <v>1.2153166722645572e-05</v>
+        <v>1.2256327905930149e-05</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.8949089823152218e-08</v>
+        <v>-2.895074266683213e-08</v>
       </c>
       <c r="I10" s="0">
-        <v>-1.4902503063138925e-06</v>
+        <v>-1.4041273622310665e-06</v>
       </c>
       <c r="J10" s="0">
-        <v>-2.0227040323559557e-08</v>
+        <v>-1.9668718971545293e-08</v>
       </c>
       <c r="K10" s="0">
-        <v>-1.1702118218881452e-08</v>
+        <v>-1.154362122557373e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3154156999569166</v>
+        <v>0.31511468159987549</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0062040654561134837</v>
+        <v>0.0062338618917270024</v>
       </c>
       <c r="E11" s="0">
-        <v>3.6125774468062595e-05</v>
+        <v>3.7259839794912915e-05</v>
       </c>
       <c r="F11" s="0">
-        <v>0.00025662288549639845</v>
+        <v>0.00026245595948736085</v>
       </c>
       <c r="G11" s="0">
-        <v>9.7477404136496677e-05</v>
+        <v>9.8451497627271959e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>5.1045117716470879e-07</v>
+        <v>7.5611470171676999e-07</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.00061957831509487432</v>
+        <v>-0.00061839649622929952</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-5.7242265188994779e-07</v>
+        <v>-5.7311361290057761e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28876898556486458</v>
+        <v>0.27540374332463791</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.026586885589334752</v>
+        <v>-0.032863230423773745</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>2.1748598548857979e-07</v>
+        <v>2.0974954193655259e-07</v>
       </c>
       <c r="F12" s="0">
-        <v>1.7963106140426572e-08</v>
+        <v>-0.00013510859826529643</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>6.4555437913459026e-09</v>
+        <v>-6.8749424464195998e-05</v>
       </c>
       <c r="I12" s="0">
-        <v>-6.0202234670831396e-05</v>
+        <v>-0.0066442204671006916</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1.3152731814791707e-07</v>
+        <v>1.6088882442977237e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.21343928320907446</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.059429830156314617</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.00062708438359353549</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.00063237248332159083</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00044580177130888705</v>
+      </c>
+      <c r="H13" s="0">
+        <v>1.7528101715213853e-05</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0017513144517244373</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>1.281148636661511e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.046450746410741595</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.25291154632570928</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-6.7440193067288198e-06</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-4.7562734390625716e-06</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-3.6197895770354439e-07</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.006966737325076541</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.1630267321427468e-07</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Row</t>
   </si>
@@ -373,6 +373,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -448,11 +523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="15.77734375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -466,42 +541,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B2" s="0">
         <v>0.29211519312986489</v>
@@ -536,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3" s="0">
         <v>0.29211835850604084</v>
@@ -571,7 +646,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0">
         <v>0.29210878208080876</v>
@@ -606,7 +681,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0">
         <v>0.29210946224705425</v>
@@ -641,7 +716,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B6" s="0">
         <v>0.29305489866589879</v>
@@ -676,7 +751,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B7" s="0">
         <v>0.29291847333201704</v>
@@ -711,7 +786,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="0">
         <v>0.28938787261184273</v>
@@ -746,7 +821,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="B9" s="0">
         <v>0.28895175533456885</v>
@@ -781,7 +856,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B10" s="0">
         <v>0.30910086590637942</v>
@@ -816,7 +891,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B11" s="0">
         <v>0.31511468159987549</v>
@@ -851,7 +926,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B12" s="0">
         <v>0.27540374332463791</v>
@@ -886,7 +961,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B13" s="0">
         <v>0.21343928320907446</v>
@@ -921,37 +996,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.046450746410741595</v>
+        <v>-0.054536711743830235</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.25291154632570928</v>
+        <v>-0.25191513164080137</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-6.7440193067288198e-06</v>
+        <v>-6.5585913236742104e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>-4.7562734390625716e-06</v>
+        <v>-0.00038857647023812265</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-3.6197895770354439e-07</v>
+        <v>-0.0034594622040450252</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.006966737325076541</v>
+        <v>-0.01256434642455314</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.1630267321427468e-07</v>
+        <v>0.00035808037805656889</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.2384965973333088</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.1852126986910641</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.002664952254753084</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0064151662485779117</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0050992848462802394</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-9.625775086988253e-05</v>
       </c>
     </row>
   </sheetData>
